--- a/MenuList.xlsx
+++ b/MenuList.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akkas Mia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ahsan Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31333E5-1198-4C26-B7EB-2AD75F65EF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D2E1993-7074-4199-AB5C-9EECE9E086A3}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Menu Name</t>
   </si>
@@ -123,13 +122,19 @@
   </si>
   <si>
     <t>Menu List</t>
+  </si>
+  <si>
+    <t>Add Package Book</t>
+  </si>
+  <si>
+    <t>/products/add-package-book/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +156,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -179,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -189,6 +200,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,24 +518,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C02EE79-9ECC-4961-8680-29DF810E30A4}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -541,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -561,7 +575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -581,7 +595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -601,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -621,7 +635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -641,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -661,7 +675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -681,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -701,7 +715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -721,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -741,7 +755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -758,6 +772,26 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -774,15 +808,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097AC4466F1B77C4F90B6C6CDE1122F4B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f2b7fa673753fb118f2f4ba11d97f4e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ca2b6424-2e53-4cd3-bbd0-33c1a6935dca" xmlns:ns4="7ed73c32-946a-4a31-a7f0-724ec3f1c4cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac1a950c01a357b7aeb4d25954f7713e" ns3:_="" ns4:_="">
     <xsd:import namespace="ca2b6424-2e53-4cd3-bbd0-33c1a6935dca"/>
@@ -1005,6 +1030,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF8910FF-06E3-40D8-B9FD-D3510520D633}">
   <ds:schemaRefs>
@@ -1023,14 +1057,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A297AB9-3DA6-496A-B261-48D15EBD8613}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9490BAD-905A-4D7A-BF72-2BE57902D3F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1047,4 +1073,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A297AB9-3DA6-496A-B261-48D15EBD8613}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>